--- a/Basico/03_CursoBitcoinBlockchain/Examen/Examen_.xlsx
+++ b/Basico/03_CursoBitcoinBlockchain/Examen/Examen_.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cuenc\Desktop\Cursos\Criptomonedas\CursoBitcoinyCripto\Basico\03_CursoBitcoinBlockchain\Examen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D8CDE7-6AA1-4CB8-83FC-DA08C88CD1BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D22BEB13-E045-4339-B9C7-55AD393344C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13550" yWindow="-90" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$D$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$D$39</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Opción Correcta</t>
   </si>
@@ -40,6 +40,66 @@
   </si>
   <si>
     <t>Opciones Negativas</t>
+  </si>
+  <si>
+    <t>El enunciado, "Todas las blockchain son públicas y cualquiera puede acceder a su información" es:</t>
+  </si>
+  <si>
+    <t>Falso, también existen blockchains privadas y sistemas híbridos.</t>
+  </si>
+  <si>
+    <t>Elige la respuesta correcta. Son las tecnologías con las que funciona Bitcoin:</t>
+  </si>
+  <si>
+    <t>Blockchain, prueba de trabajo, P2P y criptografía.</t>
+  </si>
+  <si>
+    <t>Protocolo de consenso que elige de forma aleatoria al nodo validador que agrega el próximo bloque a la cadena</t>
+  </si>
+  <si>
+    <t>PoW</t>
+  </si>
+  <si>
+    <t>¿Qué es halving?</t>
+  </si>
+  <si>
+    <t>Suceso mediante el cual se reduce la recompensa de los mineros a la mitad y que ocurre cada 210 mil bloques.</t>
+  </si>
+  <si>
+    <t>¿Cuáles son los principales problemas de escalabilidad, a nivel tecnológico, a los que se enfrenta Bitcoin?</t>
+  </si>
+  <si>
+    <t>Transacciones lentas y altos costos transaccionales en los últimos años debido al gran aumento de su valor de precio.</t>
+  </si>
+  <si>
+    <t>Elige la respuesta correcta al siguiente planteamiento: es la tecnología que se generó para resolver el problema de la escalabilidad de Bitcoin</t>
+  </si>
+  <si>
+    <t>Lightning Network</t>
+  </si>
+  <si>
+    <t>¿Qué es un protocolo de consenso?</t>
+  </si>
+  <si>
+    <t>Mecanismo que regula la forma en que los nodos crean nuevos bloques y los agregan a la cadena.</t>
+  </si>
+  <si>
+    <t>Elige la respuesta que NO corresponda con los pilares de Bitcoin.</t>
+  </si>
+  <si>
+    <t>Es privado y centralizado</t>
+  </si>
+  <si>
+    <t>Son las actividades que realizan las personas que validan las transacciones mediante PoW:</t>
+  </si>
+  <si>
+    <t>Comprueban que las transacciones sean realizadas, certifican la veracidad de las monedas y crean bitcoins al agregar nuevos bloques en la cadena.</t>
+  </si>
+  <si>
+    <t>Elige el término que corresponde con una base de datos distribuida en varios nodos de una red, con información guardada en bloques.</t>
+  </si>
+  <si>
+    <t>Blockchain</t>
   </si>
 </sst>
 </file>
@@ -107,7 +167,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -117,6 +177,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -148,7 +220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -185,6 +257,28 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -466,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -495,61 +589,124 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="2"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="1"/>
+      <c r="A2" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="24">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="11"/>
-      <c r="B3" s="10"/>
-      <c r="D3" s="1"/>
+      <c r="A3" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="23"/>
+      <c r="C3" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="24">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A4" s="11"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A5" s="2"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A6" s="11"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A7" s="11"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A8" s="11"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" ht="57.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="2"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A10" s="11"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A11" s="2"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="1"/>
+      <c r="A4" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="19"/>
+      <c r="D4" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="33" x14ac:dyDescent="0.35">
+      <c r="A5" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="22"/>
+      <c r="C5" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="33" x14ac:dyDescent="0.35">
+      <c r="A6" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="26"/>
+      <c r="C6" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="38.25" x14ac:dyDescent="0.35">
+      <c r="A7" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="22"/>
+      <c r="C7" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="22"/>
+      <c r="C8" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A9" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="22"/>
+      <c r="C9" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="33" x14ac:dyDescent="0.35">
+      <c r="A10" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="22"/>
+      <c r="C10" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="38.25" x14ac:dyDescent="0.35">
+      <c r="A11" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="22"/>
+      <c r="C11" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="24">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
@@ -560,25 +717,25 @@
     <row r="13" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13" s="7"/>
-      <c r="C13" s="10"/>
+      <c r="C13" s="15"/>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
       <c r="B14" s="7"/>
-      <c r="C14" s="15"/>
+      <c r="C14" s="10"/>
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A15" s="2"/>
+      <c r="A15" s="11"/>
       <c r="B15" s="7"/>
-      <c r="C15" s="10"/>
+      <c r="C15" s="16"/>
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A16" s="11"/>
+      <c r="A16" s="2"/>
       <c r="B16" s="7"/>
-      <c r="C16" s="16"/>
+      <c r="C16" s="10"/>
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:4" ht="21" x14ac:dyDescent="0.35">
@@ -595,13 +752,13 @@
     </row>
     <row r="19" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
-      <c r="B19" s="7"/>
+      <c r="B19" s="12"/>
       <c r="C19" s="10"/>
       <c r="D19" s="1"/>
     </row>
     <row r="20" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
-      <c r="B20" s="12"/>
+      <c r="B20" s="7"/>
       <c r="C20" s="10"/>
       <c r="D20" s="1"/>
     </row>
@@ -625,12 +782,12 @@
     </row>
     <row r="24" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
-      <c r="B24" s="7"/>
       <c r="C24" s="10"/>
       <c r="D24" s="1"/>
     </row>
     <row r="25" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A25" s="2"/>
+      <c r="B25" s="7"/>
       <c r="C25" s="10"/>
       <c r="D25" s="1"/>
     </row>
@@ -643,17 +800,17 @@
     <row r="27" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A27" s="2"/>
       <c r="B27" s="7"/>
-      <c r="C27" s="10"/>
+      <c r="C27" s="14"/>
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A28" s="2"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="14"/>
+      <c r="C28" s="10"/>
       <c r="D28" s="1"/>
     </row>
     <row r="29" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A29" s="2"/>
+      <c r="B29" s="7"/>
       <c r="C29" s="10"/>
       <c r="D29" s="1"/>
     </row>
@@ -666,7 +823,7 @@
     <row r="31" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A31" s="2"/>
       <c r="B31" s="7"/>
-      <c r="C31" s="10"/>
+      <c r="C31" s="7"/>
       <c r="D31" s="1"/>
     </row>
     <row r="32" spans="1:4" ht="21" x14ac:dyDescent="0.35">
@@ -688,19 +845,19 @@
       <c r="D34" s="1"/>
     </row>
     <row r="35" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A35" s="2"/>
+      <c r="A35" s="11"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
       <c r="D35" s="1"/>
     </row>
     <row r="36" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A36" s="11"/>
+      <c r="A36" s="13"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
       <c r="D36" s="1"/>
     </row>
     <row r="37" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A37" s="13"/>
+      <c r="A37" s="2"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
       <c r="D37" s="1"/>
@@ -718,13 +875,13 @@
       <c r="D39" s="1"/>
     </row>
     <row r="40" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A40" s="2"/>
+      <c r="A40" s="3"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
       <c r="D40" s="1"/>
     </row>
     <row r="41" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A41" s="3"/>
+      <c r="A41" s="2"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
       <c r="D41" s="1"/>
@@ -777,14 +934,8 @@
       <c r="C49" s="7"/>
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A50" s="2"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="1"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:D40" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:D39" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Basico/03_CursoBitcoinBlockchain/Examen/Examen_.xlsx
+++ b/Basico/03_CursoBitcoinBlockchain/Examen/Examen_.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cuenc\Desktop\Cursos\Criptomonedas\CursoBitcoinyCripto\Basico\03_CursoBitcoinBlockchain\Examen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D22BEB13-E045-4339-B9C7-55AD393344C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB55074-8764-4DDA-BE1A-1D513B89EAF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13550" yWindow="-90" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Basico/03_CursoBitcoinBlockchain/Examen/Examen_.xlsx
+++ b/Basico/03_CursoBitcoinBlockchain/Examen/Examen_.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cuenc\Desktop\Cursos\Criptomonedas\CursoBitcoinyCripto\Basico\03_CursoBitcoinBlockchain\Examen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB55074-8764-4DDA-BE1A-1D513B89EAF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6491F3E7-2B2E-4837-91E6-8F359B8C1A65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13550" yWindow="-90" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$D$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$D$38</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="54">
   <si>
     <t>Opción Correcta</t>
   </si>
@@ -100,13 +100,103 @@
   </si>
   <si>
     <t>Blockchain</t>
+  </si>
+  <si>
+    <t>Gestion de Curso de Gestión de Criptomonedas</t>
+  </si>
+  <si>
+    <t>Las criptomonedas y los tokens son lo mismo. Esta aseveración es:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Falsa. Las criptomonedas son la unidad de cuenta de una red blockchain mientras que los tokens son creados a partir de contratos inteligentes y pueden representar diferentes valores. </t>
+  </si>
+  <si>
+    <t>Elige el nombre con el que se le conoce a la interfaz que almacena las llaves para conectarse a una red blockchain:</t>
+  </si>
+  <si>
+    <t>Billetera (Wallet)</t>
+  </si>
+  <si>
+    <t>Te interesa comprar criptomonedas y guardarlas para obtener ganancias a largo plazo ¿qué tipo de billetera sería más confiable utilizar?</t>
+  </si>
+  <si>
+    <t>Custodiada</t>
+  </si>
+  <si>
+    <t>Son los componentes básicos de una blockchain</t>
+  </si>
+  <si>
+    <t>Sistema peer-to-peer, criptografía y consenso.</t>
+  </si>
+  <si>
+    <t>¿Cuándo debes de realizar una investigación de proyectos y plataformas?</t>
+  </si>
+  <si>
+    <t>Antes de invertir mis criptomonedas, ya que muchos proyectos son creados para estafar a los usuarios o no cumplen con regulaciones de seguridad.</t>
+  </si>
+  <si>
+    <t>Bitcoin y Ethereum son ejemplos de capa (layer):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capa 1. Infraestructura que permite hacer transferencias de valor de persona a persona de forma descentralizada. </t>
+  </si>
+  <si>
+    <t>¿Por qué es importante que guardes muy bien las palabras semilla?</t>
+  </si>
+  <si>
+    <t>Porque representan a las llaves privadas y si las extravío o las comparto perderé mis criptomonedas.</t>
+  </si>
+  <si>
+    <t>Elige la respuesta correcta. Son ejemplos de tecnologías de capa 2.</t>
+  </si>
+  <si>
+    <t>Todas son correctas</t>
+  </si>
+  <si>
+    <t>Para evaluar un proyecto además de revisar: la página web, whitepaper, equipo y contratos inteligentes también es necesario evaluar</t>
+  </si>
+  <si>
+    <t>Se refiere al costo que tiene incluir nuestra transacción en un bloque y que debes verificar antes de aceptar cualquier transacción.</t>
+  </si>
+  <si>
+    <t>El mempool. Eleva el costo de transacciones por la demanda a mineros y validadores.</t>
+  </si>
+  <si>
+    <t>El desarrollo de la capa 2 sobre una blockchain busca resolver:</t>
+  </si>
+  <si>
+    <t>La seguridad de la red y crear un sistema de consenso más estable.</t>
+  </si>
+  <si>
+    <t>Son ejemplos de plataformas de Finanzas Descentralizadas</t>
+  </si>
+  <si>
+    <t>Uniswap</t>
+  </si>
+  <si>
+    <t>Curso de Gestión de Criptoactivos</t>
+  </si>
+  <si>
+    <t>Todas las opciones</t>
+  </si>
+  <si>
+    <t>No custodiada</t>
+  </si>
+  <si>
+    <t>El creciente costo de las comisiones y el número de transacciones por segundo realizadas.</t>
+  </si>
+  <si>
+    <t>Son los componentes básicos de una blockchain:</t>
+  </si>
+  <si>
+    <t>Las comisiones. Algunas son fijas y otras variables.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,8 +256,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -189,6 +286,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -220,13 +335,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -247,17 +359,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -279,6 +384,36 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -560,382 +695,525 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="124" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.28515625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="90.42578125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="30.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="124" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="78.28515625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="90.42578125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="63" x14ac:dyDescent="0.5">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:4" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="23" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="24">
+      <c r="D2" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="26" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="24">
+      <c r="D3" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="20">
+      <c r="C4" s="15"/>
+      <c r="D4" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="33" x14ac:dyDescent="0.35">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="23" t="s">
+      <c r="B5" s="18"/>
+      <c r="C5" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="33" x14ac:dyDescent="0.35">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="23" t="s">
+      <c r="B6" s="22"/>
+      <c r="C6" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D6" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="38.25" x14ac:dyDescent="0.35">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="23" t="s">
+      <c r="B7" s="18"/>
+      <c r="C7" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="24">
+      <c r="D7" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="23" t="s">
+      <c r="B8" s="18"/>
+      <c r="C8" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="24">
+      <c r="D8" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="23" t="s">
+      <c r="B9" s="18"/>
+      <c r="C9" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D9" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="33" x14ac:dyDescent="0.35">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="23" t="s">
+      <c r="B10" s="18"/>
+      <c r="C10" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="24">
+      <c r="D10" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="38.25" x14ac:dyDescent="0.35">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="23" t="s">
+      <c r="B11" s="18"/>
+      <c r="C11" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="24">
+      <c r="D11" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="10"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="9"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A13" s="2"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="15"/>
+    <row r="13" spans="1:4" ht="33.75" x14ac:dyDescent="0.5">
+      <c r="A13" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="12"/>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="10"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="9"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A15" s="11"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A16" s="2"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A17" s="2"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="1"/>
+    <row r="15" spans="1:4" ht="33" x14ac:dyDescent="0.35">
+      <c r="A15" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="18"/>
+      <c r="C15" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="38.25" x14ac:dyDescent="0.35">
+      <c r="A16" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="18"/>
+      <c r="C16" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="38.25" x14ac:dyDescent="0.35">
+      <c r="A17" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A18" s="2"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A19" s="2"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A20" s="2"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A21" s="2"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="1"/>
+      <c r="A18" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="18"/>
+      <c r="C18" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="33" x14ac:dyDescent="0.35">
+      <c r="A19" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="26"/>
+      <c r="C19" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="33" x14ac:dyDescent="0.35">
+      <c r="A20" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="18"/>
+      <c r="C20" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="33" x14ac:dyDescent="0.35">
+      <c r="A21" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="18"/>
+      <c r="C21" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A22" s="2"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A23" s="2"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A24" s="2"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="1"/>
+      <c r="A22" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="18"/>
+      <c r="C22" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="38.25" x14ac:dyDescent="0.35">
+      <c r="A23" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="18"/>
+      <c r="C23" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="38.25" x14ac:dyDescent="0.35">
+      <c r="A24" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A25" s="2"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="1"/>
+      <c r="A25" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A26" s="2"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="1"/>
+      <c r="A26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="11"/>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A27" s="2"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="14"/>
+      <c r="C27" s="9"/>
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A28" s="2"/>
-      <c r="C28" s="10"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="9"/>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A29" s="2"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="1"/>
+    <row r="29" spans="1:4" ht="33.75" x14ac:dyDescent="0.5">
+      <c r="A29" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" s="28"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="30"/>
     </row>
     <row r="30" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A30" s="2"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="10"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
       <c r="D30" s="1"/>
     </row>
     <row r="31" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A31" s="2"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A32" s="2"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A33" s="2"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="1"/>
+      <c r="A31" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="26.25" x14ac:dyDescent="0.35">
+      <c r="A32" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="38.25" x14ac:dyDescent="0.35">
+      <c r="A33" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" s="33">
+        <v>1</v>
+      </c>
     </row>
     <row r="34" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A34" s="2"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="1"/>
-    </row>
-    <row r="35" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A35" s="11"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="1"/>
-    </row>
-    <row r="36" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A36" s="13"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="1"/>
+      <c r="A34" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="32"/>
+      <c r="C34" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="26.25" x14ac:dyDescent="0.35">
+      <c r="A35" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" s="32"/>
+      <c r="C35" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="38.25" x14ac:dyDescent="0.35">
+      <c r="A36" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" s="33">
+        <v>1</v>
+      </c>
     </row>
     <row r="37" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A37" s="2"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="1"/>
-    </row>
-    <row r="38" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A38" s="2"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="1"/>
+      <c r="A37" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" s="32"/>
+      <c r="C37" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="D37" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="26.25" x14ac:dyDescent="0.35">
+      <c r="A38" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" s="32"/>
+      <c r="C38" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D38" s="33">
+        <v>1</v>
+      </c>
     </row>
     <row r="39" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A39" s="2"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="1"/>
+      <c r="A39" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39" s="32"/>
+      <c r="C39" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="D39" s="33">
+        <v>1</v>
+      </c>
     </row>
     <row r="40" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A40" s="3"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="1"/>
-    </row>
-    <row r="41" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A41" s="2"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="1"/>
-    </row>
-    <row r="42" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A42" s="2"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="1"/>
+      <c r="A40" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" s="32"/>
+      <c r="C40" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="38.25" x14ac:dyDescent="0.35">
+      <c r="A41" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="32"/>
+      <c r="C41" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="D41" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="38.25" x14ac:dyDescent="0.35">
+      <c r="A42" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="B42" s="32"/>
+      <c r="C42" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D42" s="33">
+        <v>1</v>
+      </c>
     </row>
     <row r="43" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A43" s="2"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
       <c r="D43" s="1"/>
     </row>
     <row r="44" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A44" s="2"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
       <c r="D44" s="1"/>
     </row>
     <row r="45" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A45" s="2"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
       <c r="D45" s="1"/>
     </row>
     <row r="46" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A46" s="2"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
       <c r="D46" s="1"/>
     </row>
     <row r="47" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A47" s="2"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
       <c r="D47" s="1"/>
     </row>
     <row r="48" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A48" s="2"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A49" s="2"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="1"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:D39" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:D38" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
